--- a/multi_growth_app/active_runs/Sample Excel Experiment Run Document.xlsx
+++ b/multi_growth_app/active_runs/Sample Excel Experiment Run Document.xlsx
@@ -63,8 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -146,12 +147,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,7 +184,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -193,7 +198,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -214,13 +219,13 @@
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="n">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v/>
-      </c>
-      <c r="E3" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="str">
         <f aca="false">IF((COLUMN() -1) &lt;= $B$1, COLUMN() - 1, "")</f>
@@ -259,45 +264,45 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -4591,11 +4596,11 @@
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="E8" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
@@ -7401,11 +7406,11 @@
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
-        <v/>
+        <v>Dropdown</v>
       </c>
       <c r="E9" s="0" t="str">
         <f aca="false">IF(COLUMN() &lt;= Complete_Run_Layout!$B$1, "Dropdown", "")</f>
